--- a/backend/bitacoras.xlsx
+++ b/backend/bitacoras.xlsx
@@ -476,7 +476,7 @@
         <v>Juan</v>
       </c>
       <c r="E2" t="str">
-        <v>Valdebenito</v>
+        <v>Valdebenitoo</v>
       </c>
       <c r="F2" t="str">
         <v>22354548-9</v>
@@ -485,13 +485,13 @@
         <v>101</v>
       </c>
       <c r="I2" s="1">
-        <v>2958464.8744791667</v>
+        <v>45501.81753472222</v>
       </c>
       <c r="J2" s="1">
         <v>45495.9183725</v>
       </c>
       <c r="K2" s="1">
-        <v>45495.9183725</v>
+        <v>45501.816359143515</v>
       </c>
       <c r="L2" t="str">
         <v>jaime janitor</v>
@@ -502,13 +502,13 @@
         <v>Visita</v>
       </c>
       <c r="D3" t="str">
-        <v>Juan</v>
+        <v>juan</v>
       </c>
       <c r="E3" t="str">
-        <v>Valdebenito</v>
+        <v>jojo</v>
       </c>
       <c r="F3" t="str">
-        <v>11111111-1</v>
+        <v>22222222-2</v>
       </c>
       <c r="H3">
         <v>101</v>
@@ -517,10 +517,10 @@
         <v>2958464.8744791667</v>
       </c>
       <c r="J3" s="1">
-        <v>45499.15284076389</v>
+        <v>45499.16195277778</v>
       </c>
       <c r="K3" s="1">
-        <v>45499.15284076389</v>
+        <v>45499.16195277778</v>
       </c>
       <c r="L3" t="str">
         <v>admin admin</v>
@@ -531,25 +531,25 @@
         <v>Visita</v>
       </c>
       <c r="D4" t="str">
-        <v>juan</v>
+        <v>Pablo</v>
       </c>
       <c r="E4" t="str">
-        <v>jojo</v>
+        <v>Santos</v>
       </c>
       <c r="F4" t="str">
-        <v>22222222-2</v>
+        <v>11111111-1</v>
       </c>
       <c r="H4">
         <v>101</v>
       </c>
       <c r="I4" s="1">
-        <v>2958464.8744791667</v>
+        <v>45499.95364583333</v>
       </c>
       <c r="J4" s="1">
-        <v>45499.16195277778</v>
+        <v>45499.95432887731</v>
       </c>
       <c r="K4" s="1">
-        <v>45499.16195277778</v>
+        <v>45499.95432887731</v>
       </c>
       <c r="L4" t="str">
         <v>admin admin</v>
@@ -557,31 +557,25 @@
     </row>
     <row r="5">
       <c r="C5" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Juan</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Valdebenito</v>
-      </c>
-      <c r="F5" t="str">
-        <v>11111111-1</v>
-      </c>
-      <c r="H5">
-        <v>101</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2958464.8744791667</v>
+        <v>Espacio Comunitario</v>
+      </c>
+      <c r="H5" t="str">
+        <v>N/A</v>
       </c>
       <c r="J5" s="1">
-        <v>45499.228245405095</v>
+        <v>45499.956096724534</v>
       </c>
       <c r="K5" s="1">
-        <v>45499.228245405095</v>
+        <v>45499.956096724534</v>
       </c>
       <c r="L5" t="str">
         <v>admin admin</v>
+      </c>
+      <c r="N5" s="1">
+        <v>45500.08420138889</v>
+      </c>
+      <c r="O5" s="1">
+        <v>45499.955729166664</v>
       </c>
     </row>
     <row r="6">
@@ -597,17 +591,17 @@
       <c r="F6" t="str">
         <v>11111111-1</v>
       </c>
-      <c r="H6">
-        <v>101</v>
+      <c r="H6" t="str">
+        <v>N/A</v>
       </c>
       <c r="I6" s="1">
         <v>2958464.8744791667</v>
       </c>
       <c r="J6" s="1">
-        <v>45499.923540497686</v>
+        <v>45499.98133678241</v>
       </c>
       <c r="K6" s="1">
-        <v>45499.923540497686</v>
+        <v>45499.98133678241</v>
       </c>
       <c r="L6" t="str">
         <v>admin admin</v>
@@ -618,25 +612,25 @@
         <v>Visita</v>
       </c>
       <c r="D7" t="str">
-        <v>Pablo</v>
+        <v xml:space="preserve">pablo </v>
       </c>
       <c r="E7" t="str">
-        <v>Santos</v>
+        <v>santo</v>
       </c>
       <c r="F7" t="str">
-        <v>11111111-1</v>
-      </c>
-      <c r="H7">
-        <v>101</v>
+        <v>22222222-2</v>
+      </c>
+      <c r="H7" t="str">
+        <v>N/A</v>
       </c>
       <c r="I7" s="1">
-        <v>45499.95364583333</v>
+        <v>45499.998090277775</v>
       </c>
       <c r="J7" s="1">
-        <v>45499.95432887731</v>
+        <v>45499.99879677084</v>
       </c>
       <c r="K7" s="1">
-        <v>45499.95432887731</v>
+        <v>45499.99879677084</v>
       </c>
       <c r="L7" t="str">
         <v>admin admin</v>
@@ -644,266 +638,254 @@
     </row>
     <row r="8">
       <c r="C8" t="str">
-        <v>Espacio Comunitario</v>
-      </c>
-      <c r="H8" t="str">
-        <v>N/A</v>
+        <v>Delivery</v>
+      </c>
+      <c r="H8">
+        <v>101</v>
       </c>
       <c r="J8" s="1">
-        <v>45499.956096724534</v>
+        <v>45500.00293581018</v>
       </c>
       <c r="K8" s="1">
-        <v>45499.956096724534</v>
+        <v>45500.00293581018</v>
       </c>
       <c r="L8" t="str">
         <v>admin admin</v>
       </c>
-      <c r="N8" s="1">
-        <v>45500.08420138889</v>
-      </c>
-      <c r="O8" s="1">
-        <v>45499.955729166664</v>
+      <c r="P8" t="str">
+        <v>Geralt</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>de Rivia</v>
+      </c>
+      <c r="R8" s="1">
+        <v>45494.8328125</v>
+      </c>
+      <c r="S8" t="str">
+        <v>Un Veneco</v>
+      </c>
+      <c r="T8" t="str">
+        <v>PENDING</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Juan</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Valdebenito</v>
-      </c>
-      <c r="F9" t="str">
-        <v>11111111-1</v>
-      </c>
-      <c r="H9" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2958464.8744791667</v>
+        <v>Delivery</v>
+      </c>
+      <c r="H9">
+        <v>101</v>
       </c>
       <c r="J9" s="1">
-        <v>45499.98133678241</v>
+        <v>45500.00761385417</v>
       </c>
       <c r="K9" s="1">
-        <v>45499.98133678241</v>
+        <v>45500.00761385417</v>
       </c>
       <c r="L9" t="str">
         <v>admin admin</v>
+      </c>
+      <c r="P9" t="str">
+        <v>Pablo</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>santos</v>
+      </c>
+      <c r="R9" s="1">
+        <v>45500.00711805555</v>
+      </c>
+      <c r="S9" t="str">
+        <v>Veneco</v>
+      </c>
+      <c r="T9" t="str">
+        <v>PENDING</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D10" t="str">
-        <v xml:space="preserve">pablo </v>
-      </c>
-      <c r="E10" t="str">
-        <v>santo</v>
-      </c>
-      <c r="F10" t="str">
-        <v>22222222-2</v>
-      </c>
-      <c r="H10" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="I10" s="1">
-        <v>45499.998090277775</v>
+        <v>Delivery</v>
+      </c>
+      <c r="H10">
+        <v>101</v>
       </c>
       <c r="J10" s="1">
-        <v>45499.99879677084</v>
+        <v>45500.010901030095</v>
       </c>
       <c r="K10" s="1">
-        <v>45499.99879677084</v>
+        <v>45500.010901030095</v>
       </c>
       <c r="L10" t="str">
         <v>admin admin</v>
+      </c>
+      <c r="P10" t="str">
+        <v>11</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>11</v>
+      </c>
+      <c r="R10" s="1">
+        <v>45500.01059027778</v>
+      </c>
+      <c r="S10" t="str">
+        <v>11</v>
+      </c>
+      <c r="T10" t="str">
+        <v>PENDING</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>Delivery</v>
-      </c>
-      <c r="H11">
-        <v>101</v>
+        <v>Visita</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Valdebenito</v>
+      </c>
+      <c r="F11" t="str">
+        <v>11111111-1</v>
+      </c>
+      <c r="H11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2958464.8744791667</v>
       </c>
       <c r="J11" s="1">
-        <v>45500.00293581018</v>
+        <v>45500.03747128472</v>
       </c>
       <c r="K11" s="1">
-        <v>45500.00293581018</v>
+        <v>45500.03747128472</v>
       </c>
       <c r="L11" t="str">
         <v>admin admin</v>
-      </c>
-      <c r="P11" t="str">
-        <v>Geralt</v>
-      </c>
-      <c r="Q11" t="str">
-        <v>de Rivia</v>
-      </c>
-      <c r="R11" s="1">
-        <v>45494.8328125</v>
-      </c>
-      <c r="S11" t="str">
-        <v>Un Veneco</v>
-      </c>
-      <c r="T11" t="str">
-        <v>PENDING</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="str">
-        <v>Delivery</v>
-      </c>
-      <c r="H12">
-        <v>101</v>
+        <v>Visita</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Valdebenito</v>
+      </c>
+      <c r="F12" t="str">
+        <v>11111111-1</v>
+      </c>
+      <c r="H12" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2958464.8744791667</v>
       </c>
       <c r="J12" s="1">
-        <v>45500.00761385417</v>
+        <v>45500.03747469907</v>
       </c>
       <c r="K12" s="1">
-        <v>45500.00761385417</v>
+        <v>45500.03747469907</v>
       </c>
       <c r="L12" t="str">
         <v>admin admin</v>
-      </c>
-      <c r="P12" t="str">
-        <v>Pablo</v>
-      </c>
-      <c r="Q12" t="str">
-        <v>santos</v>
-      </c>
-      <c r="R12" s="1">
-        <v>45500.00711805555</v>
-      </c>
-      <c r="S12" t="str">
-        <v>Veneco</v>
-      </c>
-      <c r="T12" t="str">
-        <v>PENDING</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="str">
-        <v>Delivery</v>
-      </c>
-      <c r="H13">
-        <v>101</v>
+        <v>Visita</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Valdebenito</v>
+      </c>
+      <c r="F13" t="str">
+        <v>11111111-1</v>
+      </c>
+      <c r="H13" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2958464.8744791667</v>
       </c>
       <c r="J13" s="1">
-        <v>45500.010901030095</v>
+        <v>45500.04013969907</v>
       </c>
       <c r="K13" s="1">
-        <v>45500.010901030095</v>
+        <v>45500.04013969907</v>
       </c>
       <c r="L13" t="str">
         <v>admin admin</v>
-      </c>
-      <c r="P13" t="str">
-        <v>11</v>
-      </c>
-      <c r="Q13" t="str">
-        <v>11</v>
-      </c>
-      <c r="R13" s="1">
-        <v>45500.01059027778</v>
-      </c>
-      <c r="S13" t="str">
-        <v>11</v>
-      </c>
-      <c r="T13" t="str">
-        <v>PENDING</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Juan</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Valdebenito</v>
-      </c>
-      <c r="F14" t="str">
-        <v>11111111-1</v>
+        <v>Espacio Comunitario</v>
       </c>
       <c r="H14" t="str">
         <v>N/A</v>
       </c>
-      <c r="I14" s="1">
-        <v>2958464.8744791667</v>
-      </c>
       <c r="J14" s="1">
-        <v>45500.03747128472</v>
+        <v>45500.06153474537</v>
       </c>
       <c r="K14" s="1">
-        <v>45500.03747128472</v>
+        <v>45500.06153474537</v>
       </c>
       <c r="L14" t="str">
         <v>admin admin</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2958464.8744791667</v>
+      </c>
+      <c r="O14" s="1">
+        <v>45499.37447916667</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Juan</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Valdebenito</v>
-      </c>
-      <c r="F15" t="str">
-        <v>11111111-1</v>
+        <v>Espacio Comunitario</v>
       </c>
       <c r="H15" t="str">
         <v>N/A</v>
       </c>
-      <c r="I15" s="1">
-        <v>2958464.8744791667</v>
-      </c>
       <c r="J15" s="1">
-        <v>45500.03747469907</v>
+        <v>45500.061627407405</v>
       </c>
       <c r="K15" s="1">
-        <v>45500.03747469907</v>
+        <v>45500.061627407405</v>
       </c>
       <c r="L15" t="str">
         <v>admin admin</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2958464.8744791667</v>
+      </c>
+      <c r="O15" s="1">
+        <v>45499.37447916667</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Juan</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Valdebenito</v>
-      </c>
-      <c r="F16" t="str">
-        <v>11111111-1</v>
+        <v>Espacio Comunitario</v>
       </c>
       <c r="H16" t="str">
         <v>N/A</v>
       </c>
-      <c r="I16" s="1">
-        <v>2958464.8744791667</v>
-      </c>
       <c r="J16" s="1">
-        <v>45500.04013969907</v>
+        <v>45500.06342145833</v>
       </c>
       <c r="K16" s="1">
-        <v>45500.04013969907</v>
+        <v>45500.06342145833</v>
       </c>
       <c r="L16" t="str">
         <v>admin admin</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2958464.8744791667</v>
+      </c>
+      <c r="O16" s="1">
+        <v>45499.37447916667</v>
       </c>
     </row>
     <row r="17">
@@ -914,16 +896,16 @@
         <v>N/A</v>
       </c>
       <c r="J17" s="1">
-        <v>45500.06153474537</v>
+        <v>45500.063424837965</v>
       </c>
       <c r="K17" s="1">
-        <v>45500.06153474537</v>
+        <v>45500.063424837965</v>
       </c>
       <c r="L17" t="str">
         <v>admin admin</v>
       </c>
       <c r="N17" s="1">
-        <v>2958464.8744791667</v>
+        <v>37255.99947916667</v>
       </c>
       <c r="O17" s="1">
         <v>45499.37447916667</v>
@@ -937,16 +919,16 @@
         <v>N/A</v>
       </c>
       <c r="J18" s="1">
-        <v>45500.061627407405</v>
+        <v>45500.063428194444</v>
       </c>
       <c r="K18" s="1">
-        <v>45500.061627407405</v>
+        <v>45500.063428194444</v>
       </c>
       <c r="L18" t="str">
         <v>admin admin</v>
       </c>
       <c r="N18" s="1">
-        <v>2958464.8744791667</v>
+        <v>37255.99947916667</v>
       </c>
       <c r="O18" s="1">
         <v>45499.37447916667</v>
@@ -954,25 +936,31 @@
     </row>
     <row r="19">
       <c r="C19" t="str">
-        <v>Espacio Comunitario</v>
+        <v>Visita</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Pato</v>
+      </c>
+      <c r="E19" t="str">
+        <v>And</v>
+      </c>
+      <c r="F19" t="str">
+        <v>22222222-2</v>
       </c>
       <c r="H19" t="str">
         <v>N/A</v>
       </c>
+      <c r="I19" s="1">
+        <v>45500.28836805555</v>
+      </c>
       <c r="J19" s="1">
-        <v>45500.06342145833</v>
+        <v>45500.077139050925</v>
       </c>
       <c r="K19" s="1">
-        <v>45500.06342145833</v>
+        <v>45500.077139050925</v>
       </c>
       <c r="L19" t="str">
         <v>admin admin</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2958464.8744791667</v>
-      </c>
-      <c r="O19" s="1">
-        <v>45499.37447916667</v>
       </c>
     </row>
     <row r="20">
@@ -983,42 +971,51 @@
         <v>N/A</v>
       </c>
       <c r="J20" s="1">
-        <v>45500.063424837965</v>
+        <v>45500.07732525463</v>
       </c>
       <c r="K20" s="1">
-        <v>45500.063424837965</v>
+        <v>45500.07732525463</v>
       </c>
       <c r="L20" t="str">
         <v>admin admin</v>
       </c>
       <c r="N20" s="1">
-        <v>37255.99947916667</v>
+        <v>45500.0765625</v>
       </c>
       <c r="O20" s="1">
-        <v>45499.37447916667</v>
+        <v>45500.205729166664</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="str">
-        <v>Espacio Comunitario</v>
-      </c>
-      <c r="H21" t="str">
-        <v>N/A</v>
+        <v>Delivery</v>
+      </c>
+      <c r="H21">
+        <v>101</v>
       </c>
       <c r="J21" s="1">
-        <v>45500.063428194444</v>
+        <v>45500.077541782404</v>
       </c>
       <c r="K21" s="1">
-        <v>45500.063428194444</v>
+        <v>45500.077541782404</v>
       </c>
       <c r="L21" t="str">
         <v>admin admin</v>
       </c>
-      <c r="N21" s="1">
-        <v>37255.99947916667</v>
-      </c>
-      <c r="O21" s="1">
-        <v>45499.37447916667</v>
+      <c r="P21" t="str">
+        <v>jdlk</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>dlsa</v>
+      </c>
+      <c r="R21" s="1">
+        <v>45500.077256944445</v>
+      </c>
+      <c r="S21" t="str">
+        <v>leoas</v>
+      </c>
+      <c r="T21" t="str">
+        <v>PENDING</v>
       </c>
     </row>
     <row r="22">
@@ -1026,25 +1023,25 @@
         <v>Visita</v>
       </c>
       <c r="D22" t="str">
-        <v>Pato</v>
+        <v>aaa</v>
       </c>
       <c r="E22" t="str">
-        <v>And</v>
+        <v>sss</v>
       </c>
       <c r="F22" t="str">
-        <v>22222222-2</v>
+        <v>44444444-4</v>
       </c>
       <c r="H22" t="str">
         <v>N/A</v>
       </c>
       <c r="I22" s="1">
-        <v>45500.28836805555</v>
+        <v>45500.64114583333</v>
       </c>
       <c r="J22" s="1">
-        <v>45500.077139050925</v>
+        <v>45500.474946898146</v>
       </c>
       <c r="K22" s="1">
-        <v>45500.077139050925</v>
+        <v>45500.474946898146</v>
       </c>
       <c r="L22" t="str">
         <v>admin admin</v>
@@ -1052,57 +1049,60 @@
     </row>
     <row r="23">
       <c r="C23" t="str">
-        <v>Espacio Comunitario</v>
+        <v>Visita</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Valdebenito</v>
+      </c>
+      <c r="F23" t="str">
+        <v>11111111-1</v>
       </c>
       <c r="H23" t="str">
         <v>N/A</v>
       </c>
+      <c r="I23" s="1">
+        <v>2958464.8744791667</v>
+      </c>
       <c r="J23" s="1">
-        <v>45500.07732525463</v>
+        <v>45500.4755269213</v>
       </c>
       <c r="K23" s="1">
-        <v>45500.07732525463</v>
+        <v>45500.4755269213</v>
       </c>
       <c r="L23" t="str">
         <v>admin admin</v>
-      </c>
-      <c r="N23" s="1">
-        <v>45500.0765625</v>
-      </c>
-      <c r="O23" s="1">
-        <v>45500.205729166664</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="str">
-        <v>Delivery</v>
-      </c>
-      <c r="H24">
-        <v>101</v>
+        <v>Visita</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Valdebenito</v>
+      </c>
+      <c r="F24" t="str">
+        <v>11111111-1</v>
+      </c>
+      <c r="H24" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2958464.8744791667</v>
       </c>
       <c r="J24" s="1">
-        <v>45500.077541782404</v>
+        <v>45500.48611582176</v>
       </c>
       <c r="K24" s="1">
-        <v>45500.077541782404</v>
+        <v>45500.48611582176</v>
       </c>
       <c r="L24" t="str">
         <v>admin admin</v>
-      </c>
-      <c r="P24" t="str">
-        <v>jdlk</v>
-      </c>
-      <c r="Q24" t="str">
-        <v>dlsa</v>
-      </c>
-      <c r="R24" s="1">
-        <v>45500.077256944445</v>
-      </c>
-      <c r="S24" t="str">
-        <v>leoas</v>
-      </c>
-      <c r="T24" t="str">
-        <v>PENDING</v>
       </c>
     </row>
     <row r="25">
@@ -1110,25 +1110,25 @@
         <v>Visita</v>
       </c>
       <c r="D25" t="str">
-        <v>aaa</v>
+        <v>Juan</v>
       </c>
       <c r="E25" t="str">
-        <v>sss</v>
+        <v>Valdebenito</v>
       </c>
       <c r="F25" t="str">
-        <v>44444444-4</v>
+        <v>11111111-1</v>
       </c>
       <c r="H25" t="str">
         <v>N/A</v>
       </c>
       <c r="I25" s="1">
-        <v>45500.64114583333</v>
+        <v>2958464.8744791667</v>
       </c>
       <c r="J25" s="1">
-        <v>45500.474946898146</v>
+        <v>45500.494373090274</v>
       </c>
       <c r="K25" s="1">
-        <v>45500.474946898146</v>
+        <v>45500.494373090274</v>
       </c>
       <c r="L25" t="str">
         <v>admin admin</v>
@@ -1147,17 +1147,17 @@
       <c r="F26" t="str">
         <v>11111111-1</v>
       </c>
-      <c r="H26" t="str">
-        <v>N/A</v>
+      <c r="H26">
+        <v>101</v>
       </c>
       <c r="I26" s="1">
         <v>2958464.8744791667</v>
       </c>
       <c r="J26" s="1">
-        <v>45500.4755269213</v>
+        <v>45500.49754626158</v>
       </c>
       <c r="K26" s="1">
-        <v>45500.4755269213</v>
+        <v>45500.49754626158</v>
       </c>
       <c r="L26" t="str">
         <v>admin admin</v>
@@ -1176,17 +1176,17 @@
       <c r="F27" t="str">
         <v>11111111-1</v>
       </c>
-      <c r="H27" t="str">
-        <v>N/A</v>
+      <c r="H27">
+        <v>101</v>
       </c>
       <c r="I27" s="1">
         <v>2958464.8744791667</v>
       </c>
       <c r="J27" s="1">
-        <v>45500.48611582176</v>
+        <v>45500.49900349537</v>
       </c>
       <c r="K27" s="1">
-        <v>45500.48611582176</v>
+        <v>45500.49900349537</v>
       </c>
       <c r="L27" t="str">
         <v>admin admin</v>
@@ -1197,25 +1197,25 @@
         <v>Visita</v>
       </c>
       <c r="D28" t="str">
-        <v>Juan</v>
+        <v>eeeee</v>
       </c>
       <c r="E28" t="str">
-        <v>Valdebenito</v>
+        <v>rrrrr</v>
       </c>
       <c r="F28" t="str">
-        <v>11111111-1</v>
-      </c>
-      <c r="H28" t="str">
-        <v>N/A</v>
+        <v>22222222-2</v>
+      </c>
+      <c r="H28">
+        <v>101</v>
       </c>
       <c r="I28" s="1">
-        <v>2958464.8744791667</v>
+        <v>45500.6265625</v>
       </c>
       <c r="J28" s="1">
-        <v>45500.494373090274</v>
+        <v>45500.50028954861</v>
       </c>
       <c r="K28" s="1">
-        <v>45500.494373090274</v>
+        <v>45500.50028954861</v>
       </c>
       <c r="L28" t="str">
         <v>admin admin</v>
@@ -1223,89 +1223,80 @@
     </row>
     <row r="29">
       <c r="C29" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D29" t="str">
-        <v>Juan</v>
-      </c>
-      <c r="E29" t="str">
-        <v>Valdebenito</v>
-      </c>
-      <c r="F29" t="str">
-        <v>11111111-1</v>
-      </c>
-      <c r="H29">
-        <v>101</v>
+        <v>Espacio Comunitario</v>
+      </c>
+      <c r="H29" t="str">
+        <v>N/A</v>
       </c>
       <c r="I29" s="1">
         <v>2958464.8744791667</v>
       </c>
       <c r="J29" s="1">
-        <v>45500.49754626158</v>
+        <v>45500.55044414352</v>
       </c>
       <c r="K29" s="1">
-        <v>45500.49754626158</v>
+        <v>45500.55044414352</v>
       </c>
       <c r="L29" t="str">
         <v>admin admin</v>
+      </c>
+      <c r="N29" s="1">
+        <v>45500.63489583333</v>
+      </c>
+      <c r="O29" s="1">
+        <v>45500.677256944444</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D30" t="str">
-        <v>Juan</v>
-      </c>
-      <c r="E30" t="str">
-        <v>Valdebenito</v>
-      </c>
-      <c r="F30" t="str">
-        <v>11111111-1</v>
-      </c>
-      <c r="H30">
-        <v>101</v>
+        <v>Espacio Comunitario</v>
+      </c>
+      <c r="H30" t="str">
+        <v>N/A</v>
       </c>
       <c r="I30" s="1">
         <v>2958464.8744791667</v>
       </c>
       <c r="J30" s="1">
-        <v>45500.49900349537</v>
+        <v>45500.73682900463</v>
       </c>
       <c r="K30" s="1">
-        <v>45500.49900349537</v>
+        <v>45500.73682900463</v>
       </c>
       <c r="L30" t="str">
         <v>admin admin</v>
+      </c>
+      <c r="N30" s="1">
+        <v>45500.778645833336</v>
+      </c>
+      <c r="O30" s="1">
+        <v>45500.78072916667</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D31" t="str">
-        <v>eeeee</v>
-      </c>
-      <c r="E31" t="str">
-        <v>rrrrr</v>
-      </c>
-      <c r="F31" t="str">
-        <v>22222222-2</v>
-      </c>
-      <c r="H31">
-        <v>101</v>
+        <v>Espacio Comunitario</v>
+      </c>
+      <c r="H31" t="str">
+        <v>N/A</v>
       </c>
       <c r="I31" s="1">
-        <v>45500.6265625</v>
+        <v>2958464.8744791667</v>
       </c>
       <c r="J31" s="1">
-        <v>45500.50028954861</v>
+        <v>45500.73857105324</v>
       </c>
       <c r="K31" s="1">
-        <v>45500.50028954861</v>
+        <v>45500.73857105324</v>
       </c>
       <c r="L31" t="str">
         <v>admin admin</v>
+      </c>
+      <c r="N31" s="1">
+        <v>45500.73836805556</v>
+      </c>
+      <c r="O31" s="1">
+        <v>45500.78142361111</v>
       </c>
     </row>
     <row r="32">
@@ -1319,19 +1310,19 @@
         <v>2958464.8744791667</v>
       </c>
       <c r="J32" s="1">
-        <v>45500.55044414352</v>
+        <v>45500.73900483796</v>
       </c>
       <c r="K32" s="1">
-        <v>45500.55044414352</v>
+        <v>45500.73900483796</v>
       </c>
       <c r="L32" t="str">
         <v>admin admin</v>
       </c>
       <c r="N32" s="1">
-        <v>45500.63489583333</v>
+        <v>45500.73836805556</v>
       </c>
       <c r="O32" s="1">
-        <v>45500.677256944444</v>
+        <v>45500.74045138889</v>
       </c>
     </row>
     <row r="33">
@@ -1345,19 +1336,19 @@
         <v>2958464.8744791667</v>
       </c>
       <c r="J33" s="1">
-        <v>45500.73682900463</v>
+        <v>45500.74776315972</v>
       </c>
       <c r="K33" s="1">
-        <v>45500.73682900463</v>
+        <v>45500.74776315972</v>
       </c>
       <c r="L33" t="str">
         <v>admin admin</v>
       </c>
       <c r="N33" s="1">
-        <v>45500.778645833336</v>
+        <v>45499.24947916667</v>
       </c>
       <c r="O33" s="1">
-        <v>45500.78072916667</v>
+        <v>45499.37447916667</v>
       </c>
     </row>
     <row r="34">
@@ -1371,45 +1362,54 @@
         <v>2958464.8744791667</v>
       </c>
       <c r="J34" s="1">
-        <v>45500.73857105324</v>
+        <v>45500.748038680555</v>
       </c>
       <c r="K34" s="1">
-        <v>45500.73857105324</v>
+        <v>45500.748038680555</v>
       </c>
       <c r="L34" t="str">
         <v>admin admin</v>
       </c>
       <c r="N34" s="1">
-        <v>45500.73836805556</v>
+        <v>45500.747395833336</v>
       </c>
       <c r="O34" s="1">
-        <v>45500.78142361111</v>
+        <v>45500.74947916667</v>
       </c>
     </row>
     <row r="35">
       <c r="C35" t="str">
-        <v>Espacio Comunitario</v>
-      </c>
-      <c r="H35" t="str">
-        <v>N/A</v>
+        <v>Delivery</v>
+      </c>
+      <c r="H35">
+        <v>101</v>
       </c>
       <c r="I35" s="1">
         <v>2958464.8744791667</v>
       </c>
       <c r="J35" s="1">
-        <v>45500.73900483796</v>
+        <v>45500.78068145833</v>
       </c>
       <c r="K35" s="1">
-        <v>45500.73900483796</v>
+        <v>45500.78068145833</v>
       </c>
       <c r="L35" t="str">
         <v>admin admin</v>
       </c>
-      <c r="N35" s="1">
-        <v>45500.73836805556</v>
-      </c>
-      <c r="O35" s="1">
-        <v>45500.74045138889</v>
+      <c r="P35" t="str">
+        <v>Geralt</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>deRivia</v>
+      </c>
+      <c r="R35" s="1">
+        <v>45494.8328125</v>
+      </c>
+      <c r="S35" t="str">
+        <v>UnVeneco</v>
+      </c>
+      <c r="T35" t="str">
+        <v>PENDING</v>
       </c>
     </row>
     <row r="36">
@@ -1423,80 +1423,80 @@
         <v>2958464.8744791667</v>
       </c>
       <c r="J36" s="1">
-        <v>45500.74776315972</v>
+        <v>45500.781316898145</v>
       </c>
       <c r="K36" s="1">
-        <v>45500.74776315972</v>
+        <v>45500.781316898145</v>
       </c>
       <c r="L36" t="str">
         <v>admin admin</v>
       </c>
       <c r="N36" s="1">
-        <v>45499.24947916667</v>
+        <v>45500.78072916667</v>
       </c>
       <c r="O36" s="1">
-        <v>45499.37447916667</v>
+        <v>45500.782118055555</v>
       </c>
     </row>
     <row r="37">
       <c r="C37" t="str">
-        <v>Espacio Comunitario</v>
-      </c>
-      <c r="H37" t="str">
-        <v>N/A</v>
+        <v>Delivery</v>
+      </c>
+      <c r="H37">
+        <v>101</v>
       </c>
       <c r="I37" s="1">
         <v>2958464.8744791667</v>
       </c>
       <c r="J37" s="1">
-        <v>45500.748038680555</v>
+        <v>45500.78160540509</v>
       </c>
       <c r="K37" s="1">
-        <v>45500.748038680555</v>
+        <v>45500.78160540509</v>
       </c>
       <c r="L37" t="str">
         <v>admin admin</v>
       </c>
-      <c r="N37" s="1">
-        <v>45500.747395833336</v>
-      </c>
-      <c r="O37" s="1">
-        <v>45500.74947916667</v>
+      <c r="P37" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>valdez</v>
+      </c>
+      <c r="R37" s="1">
+        <v>45500.782118055555</v>
+      </c>
+      <c r="S37" t="str">
+        <v>vene</v>
+      </c>
+      <c r="T37" t="str">
+        <v>PENDING</v>
       </c>
     </row>
     <row r="38">
       <c r="C38" t="str">
-        <v>Delivery</v>
-      </c>
-      <c r="H38">
-        <v>101</v>
+        <v>Espacio Comunitario</v>
+      </c>
+      <c r="H38" t="str">
+        <v>N/A</v>
       </c>
       <c r="I38" s="1">
         <v>2958464.8744791667</v>
       </c>
       <c r="J38" s="1">
-        <v>45500.78068145833</v>
+        <v>45500.98762314815</v>
       </c>
       <c r="K38" s="1">
-        <v>45500.78068145833</v>
+        <v>45500.98762314815</v>
       </c>
       <c r="L38" t="str">
         <v>admin admin</v>
       </c>
-      <c r="P38" t="str">
-        <v>Geralt</v>
-      </c>
-      <c r="Q38" t="str">
-        <v>deRivia</v>
-      </c>
-      <c r="R38" s="1">
-        <v>45494.8328125</v>
-      </c>
-      <c r="S38" t="str">
-        <v>UnVeneco</v>
-      </c>
-      <c r="T38" t="str">
-        <v>PENDING</v>
+      <c r="N38" s="1">
+        <v>45500.528645833336</v>
+      </c>
+      <c r="O38" s="1">
+        <v>45500.8203125</v>
       </c>
     </row>
     <row r="39">
@@ -1510,54 +1510,45 @@
         <v>2958464.8744791667</v>
       </c>
       <c r="J39" s="1">
-        <v>45500.781316898145</v>
+        <v>45500.98834487268</v>
       </c>
       <c r="K39" s="1">
-        <v>45500.781316898145</v>
+        <v>45500.98834487268</v>
       </c>
       <c r="L39" t="str">
         <v>admin admin</v>
       </c>
       <c r="N39" s="1">
-        <v>45500.78072916667</v>
+        <v>45499.24947916667</v>
       </c>
       <c r="O39" s="1">
-        <v>45500.782118055555</v>
+        <v>45499.37447916667</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="str">
-        <v>Delivery</v>
-      </c>
-      <c r="H40">
-        <v>101</v>
+        <v>Espacio Comunitario</v>
+      </c>
+      <c r="H40" t="str">
+        <v>N/A</v>
       </c>
       <c r="I40" s="1">
         <v>2958464.8744791667</v>
       </c>
       <c r="J40" s="1">
-        <v>45500.78160540509</v>
+        <v>45500.9889787963</v>
       </c>
       <c r="K40" s="1">
-        <v>45500.78160540509</v>
+        <v>45500.9889787963</v>
       </c>
       <c r="L40" t="str">
         <v>admin admin</v>
       </c>
-      <c r="P40" t="str">
-        <v>Juan</v>
-      </c>
-      <c r="Q40" t="str">
-        <v>valdez</v>
-      </c>
-      <c r="R40" s="1">
-        <v>45500.782118055555</v>
-      </c>
-      <c r="S40" t="str">
-        <v>vene</v>
-      </c>
-      <c r="T40" t="str">
-        <v>PENDING</v>
+      <c r="N40" s="1">
+        <v>45499.24947916667</v>
+      </c>
+      <c r="O40" s="1">
+        <v>45499.37447916667</v>
       </c>
     </row>
     <row r="41">
@@ -1571,126 +1562,147 @@
         <v>2958464.8744791667</v>
       </c>
       <c r="J41" s="1">
-        <v>45500.98762314815</v>
+        <v>45500.993379293985</v>
       </c>
       <c r="K41" s="1">
-        <v>45500.98762314815</v>
+        <v>45500.993379293985</v>
       </c>
       <c r="L41" t="str">
         <v>admin admin</v>
       </c>
       <c r="N41" s="1">
-        <v>45500.528645833336</v>
+        <v>45499.24947916667</v>
       </c>
       <c r="O41" s="1">
-        <v>45500.8203125</v>
+        <v>45499.37447916667</v>
       </c>
     </row>
     <row r="42">
       <c r="C42" t="str">
-        <v>Espacio Comunitario</v>
-      </c>
-      <c r="H42" t="str">
-        <v>N/A</v>
+        <v>Visita</v>
+      </c>
+      <c r="D42" t="str">
+        <v>pepe</v>
+      </c>
+      <c r="E42" t="str">
+        <v>grillo</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10101101-1</v>
+      </c>
+      <c r="H42">
+        <v>101</v>
       </c>
       <c r="I42" s="1">
-        <v>2958464.8744791667</v>
+        <v>45501.00503472222</v>
       </c>
       <c r="J42" s="1">
-        <v>45500.98834487268</v>
+        <v>45501.00479414352</v>
       </c>
       <c r="K42" s="1">
-        <v>45500.98834487268</v>
+        <v>45501.00479414352</v>
       </c>
       <c r="L42" t="str">
         <v>admin admin</v>
-      </c>
-      <c r="N42" s="1">
-        <v>45499.24947916667</v>
-      </c>
-      <c r="O42" s="1">
-        <v>45499.37447916667</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" t="str">
-        <v>Espacio Comunitario</v>
-      </c>
-      <c r="H43" t="str">
-        <v>N/A</v>
+        <v>Delivery</v>
+      </c>
+      <c r="H43">
+        <v>101</v>
       </c>
       <c r="I43" s="1">
         <v>2958464.8744791667</v>
       </c>
       <c r="J43" s="1">
-        <v>45500.9889787963</v>
+        <v>45501.005729861114</v>
       </c>
       <c r="K43" s="1">
-        <v>45500.9889787963</v>
+        <v>45501.005729861114</v>
       </c>
       <c r="L43" t="str">
         <v>admin admin</v>
       </c>
-      <c r="N43" s="1">
-        <v>45499.24947916667</v>
-      </c>
-      <c r="O43" s="1">
-        <v>45499.37447916667</v>
+      <c r="P43" t="str">
+        <v>juan</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>carlos</v>
+      </c>
+      <c r="R43" s="1">
+        <v>45501.00503472222</v>
+      </c>
+      <c r="S43" t="str">
+        <v>pepe</v>
+      </c>
+      <c r="T43" t="str">
+        <v>PENDING</v>
       </c>
     </row>
     <row r="44">
       <c r="C44" t="str">
-        <v>Espacio Comunitario</v>
-      </c>
-      <c r="H44" t="str">
-        <v>N/A</v>
+        <v>Visita</v>
+      </c>
+      <c r="D44" t="str">
+        <v>aa</v>
+      </c>
+      <c r="E44" t="str">
+        <v>dd</v>
+      </c>
+      <c r="F44" t="str">
+        <v>11111111-1</v>
+      </c>
+      <c r="H44">
+        <v>101</v>
       </c>
       <c r="I44" s="1">
-        <v>2958464.8744791667</v>
+        <v>45500.528645833336</v>
       </c>
       <c r="J44" s="1">
-        <v>45500.993379293985</v>
+        <v>45501.817855625</v>
       </c>
       <c r="K44" s="1">
-        <v>45500.993379293985</v>
+        <v>45501.817855625</v>
       </c>
       <c r="L44" t="str">
         <v>admin admin</v>
-      </c>
-      <c r="N44" s="1">
-        <v>45499.24947916667</v>
-      </c>
-      <c r="O44" s="1">
-        <v>45499.37447916667</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" t="str">
-        <v>Visita</v>
-      </c>
-      <c r="D45" t="str">
-        <v>pepe</v>
-      </c>
-      <c r="E45" t="str">
-        <v>grillo</v>
-      </c>
-      <c r="F45" t="str">
-        <v>10101101-1</v>
+        <v>Delivery</v>
       </c>
       <c r="H45">
         <v>101</v>
       </c>
       <c r="I45" s="1">
-        <v>45501.00503472222</v>
+        <v>2958464.8744791667</v>
       </c>
       <c r="J45" s="1">
-        <v>45501.00479414352</v>
+        <v>45501.955593101855</v>
       </c>
       <c r="K45" s="1">
-        <v>45501.00479414352</v>
+        <v>45501.955593101855</v>
       </c>
       <c r="L45" t="str">
         <v>admin admin</v>
+      </c>
+      <c r="P45" t="str">
+        <v>algo</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>algoo</v>
+      </c>
+      <c r="R45" s="1">
+        <v>45501.955034722225</v>
+      </c>
+      <c r="S45" t="str">
+        <v>alge</v>
+      </c>
+      <c r="T45" t="str">
+        <v>PENDING</v>
       </c>
     </row>
     <row r="46">
@@ -1704,25 +1716,25 @@
         <v>2958464.8744791667</v>
       </c>
       <c r="J46" s="1">
-        <v>45501.005729861114</v>
+        <v>45501.95689715278</v>
       </c>
       <c r="K46" s="1">
-        <v>45501.005729861114</v>
+        <v>45501.95689715278</v>
       </c>
       <c r="L46" t="str">
         <v>admin admin</v>
       </c>
       <c r="P46" t="str">
-        <v>juan</v>
+        <v>aa</v>
       </c>
       <c r="Q46" t="str">
-        <v>carlos</v>
+        <v>ee</v>
       </c>
       <c r="R46" s="1">
-        <v>45501.00503472222</v>
+        <v>45501.95642361111</v>
       </c>
       <c r="S46" t="str">
-        <v>pepe</v>
+        <v>rr</v>
       </c>
       <c r="T46" t="str">
         <v>PENDING</v>
